--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yassine\Documents\Mes Projets C#\Fun\.NET Core\Console\C vs C#\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B6DBCA-7E75-42C2-8CD1-A7B050277229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE40983-3891-4372-B869-430A08D70D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A26B7F3-8E58-4D5C-AE3A-02D3DF355BF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8A26B7F3-8E58-4D5C-AE3A-02D3DF355BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="15">
   <si>
     <t>Itterations</t>
   </si>
@@ -86,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,16 +94,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -111,17 +124,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF8EA9DB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF8EA9DB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1639,7 +1695,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DDA546CA-4580-4336-90D1-0E1439C8B9F1}" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DDA546CA-4580-4336-90D1-0E1439C8B9F1}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:I8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" dataField="1" showAll="0">
@@ -2038,7 +2094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F75F899-3709-4A52-8697-14D448034E28}">
   <dimension ref="A3:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2192,10 +2248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F48E65-26DE-4B17-954E-C27C62D006F6}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:F51"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2702,6 +2758,154 @@
         <v>73.555555555555557</v>
       </c>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>100000</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5">
+        <v>7217</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>100000</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="8">
+        <v>7175</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>100000</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5">
+        <v>7242</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>100000</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="8">
+        <v>7112</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>100000</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5">
+        <v>7112</v>
+      </c>
+      <c r="E46" s="5">
+        <v>7242</v>
+      </c>
+      <c r="F46" s="6">
+        <v>7186.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>100000</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="8">
+        <v>8520</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>100000</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="5">
+        <v>7757</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>100000</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="8">
+        <v>8171</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>100000</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="5">
+        <v>7837</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>100000</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8">
+        <v>7757</v>
+      </c>
+      <c r="E51" s="8">
+        <v>8520</v>
+      </c>
+      <c r="F51" s="9">
+        <v>8071.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
